--- a/Factorial design.xlsx
+++ b/Factorial design.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D689EA-6DB9-47C5-ACEB-E06DBF1636C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B62E08-0F8E-47C4-BB6A-DCCB8673AE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -955,6 +955,122 @@
         <v>6.47</v>
       </c>
     </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>19.690000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>128</v>
+      </c>
+      <c r="G24">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>32.36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Factorial design.xlsx
+++ b/Factorial design.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B62E08-0F8E-47C4-BB6A-DCCB8673AE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F30F5F-628C-4F47-9CBB-0DB07802D143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1074,5 +1077,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>